--- a/Manutenção Village/Resumo propostas.xlsx
+++ b/Manutenção Village/Resumo propostas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProjetosRCR\Village\Manutenção Village\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6158BA-2B7B-45B4-8B52-420467241FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A64A81-96E2-457A-903D-D54E841B68F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="780" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{3F92A93F-2038-4AE7-89F4-3736B5AB9EC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F92A93F-2038-4AE7-89F4-3736B5AB9EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Propostas" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Fossa 01</t>
   </si>
@@ -128,6 +128,30 @@
   </si>
   <si>
     <t>Prestação de serviços</t>
+  </si>
+  <si>
+    <t>4) Individualização sanitária global ddo condominio com biodigestor</t>
+  </si>
+  <si>
+    <t>Biodigestor 700L - Cap7</t>
+  </si>
+  <si>
+    <t>Sumidouro</t>
+  </si>
+  <si>
+    <t>Biodigestor - caixa de secagem Lodo</t>
+  </si>
+  <si>
+    <t>Peças e materiais</t>
+  </si>
+  <si>
+    <t>Mão de obra</t>
+  </si>
+  <si>
+    <t>Maicon Rogerio - Automatiza Sistemas e manutenções</t>
+  </si>
+  <si>
+    <t>Valor Geral / Ano</t>
   </si>
 </sst>
 </file>
@@ -137,7 +161,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -253,7 +277,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,13 +306,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,22 +323,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -629,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8030DE89-15C7-4B67-A7D2-CC71B0983F32}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +664,7 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
@@ -650,24 +672,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -700,7 +722,7 @@
         <f>C5*B5</f>
         <v>17000</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="20">
         <f>D8/549</f>
         <v>73.588342440801455</v>
       </c>
@@ -719,7 +741,7 @@
         <f t="shared" ref="D6:D7" si="0">C6*B6</f>
         <v>18400</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -735,7 +757,7 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -750,18 +772,18 @@
         <f>SUM(D5:D7)</f>
         <v>40400</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
@@ -843,23 +865,23 @@
       <c r="G15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -893,7 +915,7 @@
         <f>C19*B19</f>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="20">
         <f>D23/549</f>
         <v>43.800619307832427</v>
       </c>
@@ -913,7 +935,7 @@
         <f t="shared" ref="D20:D22" si="1">C20*B20</f>
         <v>10930.24</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="20"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -930,7 +952,7 @@
         <f t="shared" si="1"/>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="20"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -947,7 +969,7 @@
         <f t="shared" si="1"/>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="20"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,7 +982,7 @@
         <f>SUM(D19:D22)</f>
         <v>24046.54</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="20"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -971,13 +993,13 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -1010,7 +1032,7 @@
         <f>C27*B27</f>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="20">
         <f>D32/549</f>
         <v>2229.8006193078327</v>
       </c>
@@ -1029,7 +1051,7 @@
         <f t="shared" ref="D28:D31" si="2">C28*B28</f>
         <v>10930.24</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1045,7 +1067,7 @@
         <f t="shared" si="2"/>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -1061,7 +1083,7 @@
         <f t="shared" si="2"/>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -1077,7 +1099,7 @@
         <f t="shared" si="2"/>
         <v>1200114</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1089,7 +1111,7 @@
         <f>SUM(D27:D31)</f>
         <v>1224160.54</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1099,13 +1121,13 @@
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
@@ -1138,7 +1160,7 @@
         <f t="shared" ref="D36" si="3">C36*B36</f>
         <v>1200114</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="20">
         <f>D37/549</f>
         <v>2186</v>
       </c>
@@ -1153,37 +1175,211 @@
         <f>SUM(D36:D36)</f>
         <v>1200114</v>
       </c>
-      <c r="E37" s="15"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
+      <c r="A39" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
+      <c r="A40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1420</v>
+      </c>
+      <c r="C41" s="6">
+        <v>549</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" ref="D41:D42" si="4">C41*B41</f>
+        <v>779580</v>
+      </c>
+      <c r="E41" s="20">
+        <f>D46/549</f>
+        <v>3870</v>
+      </c>
       <c r="G41"/>
     </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3">
+        <v>600</v>
+      </c>
+      <c r="C42" s="6">
+        <v>549</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" ref="D42" si="5">C42*B42</f>
+        <v>329400</v>
+      </c>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="4">
+        <v>800</v>
+      </c>
+      <c r="C43" s="6">
+        <v>549</v>
+      </c>
+      <c r="D43" s="4">
+        <f>C43*B43</f>
+        <v>439200</v>
+      </c>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="4">
+        <v>450</v>
+      </c>
+      <c r="C44" s="6">
+        <v>549</v>
+      </c>
+      <c r="D44" s="4">
+        <f>C44*B44</f>
+        <v>247050</v>
+      </c>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="4">
+        <v>600</v>
+      </c>
+      <c r="C45" s="6">
+        <v>549</v>
+      </c>
+      <c r="D45" s="4">
+        <f>C45*B45</f>
+        <v>329400</v>
+      </c>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="8">
+        <f>SUM(D41:D45)</f>
+        <v>2124630</v>
+      </c>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1270</v>
+      </c>
+      <c r="C50" s="3">
+        <f>B50*12</f>
+        <v>15240</v>
+      </c>
+      <c r="D50" s="6">
+        <v>3</v>
+      </c>
+      <c r="E50" s="9">
+        <f>D50*B50</f>
+        <v>3810</v>
+      </c>
+      <c r="F50" s="3">
+        <f>D50*C50</f>
+        <v>45720</v>
+      </c>
+      <c r="G50" s="4">
+        <f>F50/549</f>
+        <v>83.278688524590166</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="E19:E23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="E27:E32"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1191,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7B73E-6CFF-45C0-94D7-8A347BFD611F}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1414,7 @@
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1227,36 +1423,36 @@
       <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="18">
         <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="str">
+      <c r="A5" s="5" t="str">
         <f>Propostas!A3</f>
         <v>Sr. Lindolfo</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="25"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="4">
         <f>Propostas!D8</f>
         <v>40400</v>
       </c>
@@ -1264,8 +1460,8 @@
         <f>((B6*$C$2)+B6)/$C$3</f>
         <v>73.588342440801455</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
@@ -1276,7 +1472,7 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="4">
@@ -1289,7 +1485,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4">
@@ -1310,7 +1506,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="str">
+      <c r="A11" s="15" t="str">
         <f>Propostas!A17</f>
         <v>1) Fossa com sumidouro em complemento as existentes</v>
       </c>
@@ -1324,7 +1520,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="str">
+      <c r="A12" s="15" t="str">
         <f>Propostas!A25</f>
         <v>2) Fossa com sumidouro em complemento as existentes e construção de fossa individual</v>
       </c>
@@ -1338,7 +1534,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="str">
+      <c r="A13" s="15" t="str">
         <f>Propostas!A34</f>
         <v>3) Individualização de fossas - por unidade</v>
       </c>
@@ -1349,6 +1545,20 @@
       <c r="C13" s="4">
         <f>((B13*$C$2)+B13)/$C$3</f>
         <v>2186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="str">
+        <f>Propostas!A35</f>
+        <v>Descrição</v>
+      </c>
+      <c r="B14" s="4">
+        <f>Propostas!D38</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <f>((B14*$C$2)+B14)/$C$3</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Manutenção Village/Resumo propostas.xlsx
+++ b/Manutenção Village/Resumo propostas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProjetosRCR\Village\Manutenção Village\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A64A81-96E2-457A-903D-D54E841B68F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9A94F7-71A0-49AC-A4FE-07D8AC36E211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F92A93F-2038-4AE7-89F4-3736B5AB9EC4}"/>
+    <workbookView xWindow="-24120" yWindow="780" windowWidth="24240" windowHeight="13140" xr2:uid="{3F92A93F-2038-4AE7-89F4-3736B5AB9EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Propostas" sheetId="2" r:id="rId1"/>
@@ -314,23 +314,23 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8030DE89-15C7-4B67-A7D2-CC71B0983F32}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,15 +672,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -722,7 +722,7 @@
         <f>C5*B5</f>
         <v>17000</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="22">
         <f>D8/549</f>
         <v>73.588342440801455</v>
       </c>
@@ -741,7 +741,7 @@
         <f t="shared" ref="D6:D7" si="0">C6*B6</f>
         <v>18400</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -757,7 +757,7 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -772,7 +772,7 @@
         <f>SUM(D5:D7)</f>
         <v>40400</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
@@ -875,13 +875,13 @@
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
         <f>C19*B19</f>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="22">
         <f>D23/549</f>
         <v>43.800619307832427</v>
       </c>
@@ -935,7 +935,7 @@
         <f t="shared" ref="D20:D22" si="1">C20*B20</f>
         <v>10930.24</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="22"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <f t="shared" si="1"/>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="22"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <f t="shared" si="1"/>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="22"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <f>SUM(D19:D22)</f>
         <v>24046.54</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="22"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <f>C27*B27</f>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="22">
         <f>D32/549</f>
         <v>2229.8006193078327</v>
       </c>
@@ -1051,7 +1051,7 @@
         <f t="shared" ref="D28:D31" si="2">C28*B28</f>
         <v>10930.24</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1067,7 +1067,7 @@
         <f t="shared" si="2"/>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -1083,7 +1083,7 @@
         <f t="shared" si="2"/>
         <v>4372.1000000000004</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -1099,7 +1099,7 @@
         <f t="shared" si="2"/>
         <v>1200114</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1111,7 +1111,7 @@
         <f>SUM(D27:D31)</f>
         <v>1224160.54</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1160,7 +1160,7 @@
         <f t="shared" ref="D36" si="3">C36*B36</f>
         <v>1200114</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="22">
         <f>D37/549</f>
         <v>2186</v>
       </c>
@@ -1175,7 +1175,7 @@
         <f>SUM(D36:D36)</f>
         <v>1200114</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
@@ -1220,10 +1220,10 @@
         <v>549</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" ref="D41:D42" si="4">C41*B41</f>
+        <f t="shared" ref="D41" si="4">C41*B41</f>
         <v>779580</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="22">
         <f>D46/549</f>
         <v>3870</v>
       </c>
@@ -1243,7 +1243,7 @@
         <f t="shared" ref="D42" si="5">C42*B42</f>
         <v>329400</v>
       </c>
-      <c r="E42" s="20"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -1259,7 +1259,7 @@
         <f>C43*B43</f>
         <v>439200</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -1275,7 +1275,7 @@
         <f>C44*B44</f>
         <v>247050</v>
       </c>
-      <c r="E44" s="20"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -1291,7 +1291,7 @@
         <f>C45*B45</f>
         <v>329400</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -1303,7 +1303,7 @@
         <f>SUM(D41:D45)</f>
         <v>2124630</v>
       </c>
-      <c r="E46" s="20"/>
+      <c r="E46" s="22"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">

--- a/Manutenção Village/Resumo propostas.xlsx
+++ b/Manutenção Village/Resumo propostas.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProjetosRCR\Village\Manutenção Village\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projetos\village\Manutenção Village\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9A94F7-71A0-49AC-A4FE-07D8AC36E211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="780" windowWidth="24240" windowHeight="13140" xr2:uid="{3F92A93F-2038-4AE7-89F4-3736B5AB9EC4}"/>
+    <workbookView xWindow="-24120" yWindow="780" windowWidth="24240" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Propostas" sheetId="2" r:id="rId1"/>
     <sheet name="Rateio_" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -157,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -650,10 +649,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8030DE89-15C7-4B67-A7D2-CC71B0983F32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1386,11 +1385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7B73E-6CFF-45C0-94D7-8A347BFD611F}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,16 +1548,38 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="str">
-        <f>Propostas!A35</f>
-        <v>Descrição</v>
+        <f>Propostas!A39</f>
+        <v>4) Individualização sanitária global ddo condominio com biodigestor</v>
       </c>
       <c r="B14" s="4">
-        <f>Propostas!D38</f>
-        <v>0</v>
+        <f>Propostas!D46</f>
+        <v>2124630</v>
       </c>
       <c r="C14" s="4">
         <f>((B14*$C$2)+B14)/$C$3</f>
-        <v>0</v>
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="str">
+        <f>Propostas!A48</f>
+        <v>Maicon Rogerio - Automatiza Sistemas e manutenções</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="str">
+        <f>Propostas!A50</f>
+        <v>Comodato</v>
+      </c>
+      <c r="B16" s="4">
+        <f>Propostas!E50</f>
+        <v>3810</v>
+      </c>
+      <c r="C16" s="4">
+        <f>((B16*$C$2)+B16)/$C$3</f>
+        <v>6.9398907103825138</v>
       </c>
     </row>
   </sheetData>

--- a/Manutenção Village/Resumo propostas.xlsx
+++ b/Manutenção Village/Resumo propostas.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projetos\village\Manutenção Village\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProjetosRCR\Village\Manutenção Village\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE910B2-93C3-468E-91C3-BFA3DF8F4439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="780" windowWidth="24240" windowHeight="13140" activeTab="1"/>
+    <workbookView xWindow="-24120" yWindow="780" windowWidth="24240" windowHeight="13140" xr2:uid="{3F92A93F-2038-4AE7-89F4-3736B5AB9EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Propostas" sheetId="2" r:id="rId1"/>
     <sheet name="Rateio_" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>Fossa 01</t>
   </si>
@@ -156,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -649,11 +650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8030DE89-15C7-4B67-A7D2-CC71B0983F32}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,11 +1386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F7B73E-6CFF-45C0-94D7-8A347BFD611F}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,16 +1549,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="str">
-        <f>Propostas!A39</f>
-        <v>4) Individualização sanitária global ddo condominio com biodigestor</v>
+        <f>Propostas!A35</f>
+        <v>Descrição</v>
       </c>
       <c r="B14" s="4">
-        <f>Propostas!D46</f>
-        <v>2124630</v>
+        <f>Propostas!D38</f>
+        <v>0</v>
       </c>
       <c r="C14" s="4">
         <f>((B14*$C$2)+B14)/$C$3</f>
-        <v>3870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,18 +1570,22 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="str">
-        <f>Propostas!A50</f>
-        <v>Comodato</v>
+      <c r="A16" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="4">
-        <f>Propostas!E50</f>
-        <v>3810</v>
+        <f>Propostas!F50</f>
+        <v>45720</v>
       </c>
       <c r="C16" s="4">
         <f>((B16*$C$2)+B16)/$C$3</f>
-        <v>6.9398907103825138</v>
-      </c>
+        <v>83.278688524590166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
